--- a/data/trans_camb/P5_1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_1-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,24</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 13,15</t>
+          <t>-8,24; 12,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 11,79</t>
+          <t>-11,14; 12,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 8,83</t>
+          <t>-7,36; 8,46</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,12%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 22,76</t>
+          <t>-12,21; 21,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 26,43</t>
+          <t>-18,91; 26,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 16,37</t>
+          <t>-11,87; 15,28</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,07</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-2,28</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 14,09</t>
+          <t>-10,96; 13,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 4,44</t>
+          <t>-16,62; 3,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 5,72</t>
+          <t>-10,35; 5,91</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,03%</t>
+          <t>-13,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,59%</t>
+          <t>-5,42%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,28; 38,56</t>
+          <t>-23,66; 38,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,54; 11,56</t>
+          <t>-34,63; 9,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 14,79</t>
+          <t>-22,37; 15,58</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>-0,45</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 10,44</t>
+          <t>-13,54; 7,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 11,62</t>
+          <t>-5,97; 9,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 8,24</t>
+          <t>-6,95; 5,05</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,77%</t>
+          <t>-6,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>-1,02%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 26,36</t>
+          <t>-28,19; 17,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 30,28</t>
+          <t>-13,05; 24,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 20,59</t>
+          <t>-14,78; 12,26</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-1,74</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 5,78</t>
+          <t>-12,35; 5,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 7,0</t>
+          <t>-7,8; 7,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 4,32</t>
+          <t>-7,04; 4,88</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,24%</t>
+          <t>-6,42%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,01%</t>
+          <t>-3,65%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 12,45</t>
+          <t>-22,24; 10,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 17,21</t>
+          <t>-15,97; 18,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 9,63</t>
+          <t>-14,22; 10,86</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>2,12</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 9,96</t>
+          <t>-11,28; 8,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 15,48</t>
+          <t>-4,71; 14,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 10,31</t>
+          <t>-4,92; 8,83</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>4,49%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 20,46</t>
+          <t>-19,44; 18,06</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 41,49</t>
+          <t>-10,24; 38,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 22,94</t>
+          <t>-9,86; 20,67</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 15,73</t>
+          <t>-7,24; 13,93</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 7,43</t>
+          <t>-10,92; 7,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 8,71</t>
+          <t>-6,73; 7,34</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>-3,67%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>0,64%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 35,34</t>
+          <t>-13,75; 31,91</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 17,59</t>
+          <t>-21,86; 17,62</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 19,44</t>
+          <t>-13,36; 16,53</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,27</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 5,3</t>
+          <t>-4,85; 4,32</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 3,94</t>
+          <t>-3,97; 3,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 3,07</t>
+          <t>-3,23; 2,41</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>-0,74%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>-0,57%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 11,12</t>
+          <t>-9,28; 9,03</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 9,03</t>
+          <t>-8,38; 8,14</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 6,58</t>
+          <t>-6,56; 5,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_1-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,45</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.083486878656561</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2463433351770794</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.494982978941317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,24; 12,64</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,14; 12,27</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,36; 8,46</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.973352959082547</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.13830597097371</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.547024841646547</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,12%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.50403192303068</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.27660845799923</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.71165810333966</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-12,21; 21,5</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-18,91; 26,92</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,87; 15,28</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.04805730952062023</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.004738157783948191</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.02560363116524446</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,81</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.1190850106776809</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1904582369584872</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1171701130447546</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,96; 13,58</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,62; 3,95</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,35; 5,91</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.2253989407264965</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.2662633284108187</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1555715259153697</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,26%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-13,44%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-5,42%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.7767089817028616</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.560995618180503</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.226353015426247</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-23,66; 38,84</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-34,63; 9,8</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-22,37; 15,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.35738460328373</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.20864759591812</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-10.25248197640244</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,01</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.97784217841841</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.290564793748686</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.070714735093246</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,54; 7,27</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,97; 9,78</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,95; 5,05</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.01890985439682719</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1286412447886325</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.0528735100204128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-6,7%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,69%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,02%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2399650864402393</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.3483484197673109</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2232206879131978</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-28,19; 17,49</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-13,05; 24,31</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-14,78; 12,26</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.3697591441900802</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1064801240063437</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1580603845396523</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-3,27</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,74</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-3.69773181054876</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.791999562433978</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.4198233358397585</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-12,35; 5,14</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-7,8; 7,57</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-7,04; 4,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-14.52744254822065</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-5.616308382185138</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.475311526358073</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-6,42%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,92%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-3,65%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>6.697091215668022</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>10.35209966016331</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>5.43437999561628</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-22,24; 10,78</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-15,97; 18,1</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-14,22; 10,86</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.08227137476311876</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.06457046119653093</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.009523875931192291</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>4,64</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2,12</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2970263072979397</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1205437300143749</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1565960968272401</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-11,28; 8,67</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-4,71; 14,32</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-4,92; 8,83</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.1679477154599438</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.2617512221045084</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1314708873050642</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-0,51%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>10,87%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>4,49%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.680910821667065</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.6739734483955817</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-1.60037759520481</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-19,44; 18,06</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-10,24; 38,69</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-9,86; 20,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-11.98460547220732</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-8.261026287489001</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-7.290214380525292</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,7</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.772713261767038</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.39501537073046</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>4.744611472314255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-7,24; 13,93</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-10,92; 7,38</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-6,73; 7,34</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.05263166404587729</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.01512391223504783</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.03362392278643592</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>5,98%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-3,67%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.2146606464205219</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1695884417976634</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1435214627576084</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-13,75; 31,91</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-21,86; 17,62</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-13,36; 16,53</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1216911003058346</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1817883808239092</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1062619854049942</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>0.6414296066053593</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>5.031177209236409</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>2.771919603028122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 4,32</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 3,5</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-3,23; 2,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-10.66119614152966</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-4.223406249729587</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-4.219110276795865</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-0,74%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-0,4%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-0,57%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>9.533081377370117</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>15.12193754063239</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>9.499431211075098</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-9,28; 9,03</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-8,38; 8,14</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-6,56; 5,24</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.01242484756328863</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.1178905498087952</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.05873634942350479</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.1954509525063495</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.09166920324451421</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.08597209959347374</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.2036455274815874</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.4056379161581417</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.2185451804307164</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>4.895507944411342</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>0.3587202848573057</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>2.322362636011049</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-5.453947974789979</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-9.251183812571515</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-4.961161520651389</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>16.25848691356785</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>9.41509024968091</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>9.44997655838042</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.1001193678162979</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.007734514728178625</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.04893667632285362</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.1043380779423147</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.1825494071052295</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.1029165065630782</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.3760511027698434</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.2217705055824306</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.2105772998041213</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0.06977941854302561</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>0.4726386429136364</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.2758640987926775</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-4.525941369288041</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-3.273337511843402</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-2.864471302841311</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>4.639994576941987</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>4.366969453911558</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>3.092526242626329</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.001398452616944419</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.01046260759106438</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.005809958213565142</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.0865434345602773</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.0703312546701646</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.05862841648895373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.09748791179628397</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.103294629591213</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.06645736710110658</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
